--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E1FA14-604E-473F-8028-EE04E42EF52F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFAF108-054C-4687-BCBC-5C17713B8A82}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFAF108-054C-4687-BCBC-5C17713B8A82}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F605F09D-5832-4C85-B7E0-3A6B61EF161F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,7 +860,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F605F09D-5832-4C85-B7E0-3A6B61EF161F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1918217F-E4ED-4F34-ABB1-FA320294B735}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="商品" sheetId="42" r:id="rId2"/>
+    <sheet name="特权" sheetId="43" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>sheet名</t>
   </si>
@@ -263,6 +264,18 @@
   </si>
   <si>
     <t>commodity.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -765,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -859,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1087,8 +1100,8 @@
       <c r="C4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>57</v>
+      <c r="D4" s="4">
+        <v>101</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>59</v>
@@ -1318,4 +1331,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15ACC97-6791-4153-8BE8-C87B6393AA81}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>101</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1918217F-E4ED-4F34-ABB1-FA320294B735}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DC682C-4D61-417A-BA5B-F9FB61186F8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>sheet名</t>
   </si>
@@ -224,10 +224,6 @@
   </si>
   <si>
     <t>AutoClick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -778,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -818,20 +814,20 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -839,11 +835,11 @@
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
@@ -852,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="4" t="b">
         <v>1</v>
@@ -872,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -965,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -1104,7 +1100,7 @@
         <v>101</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1113,7 +1109,7 @@
         <v>200</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -1142,11 +1138,11 @@
         <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -1155,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -1164,7 +1160,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" s="4">
         <v>2</v>
@@ -1358,7 +1354,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1386,7 +1382,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1400,7 +1396,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DC682C-4D61-417A-BA5B-F9FB61186F8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37032CB3-37AB-49DE-A0C6-E4E5E130622C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="商品" sheetId="42" r:id="rId2"/>
     <sheet name="特权" sheetId="43" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>sheet名</t>
   </si>
@@ -272,6 +272,42 @@
   </si>
   <si>
     <t>中文名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链S4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指S4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级精炼石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级精炼石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级攻击晶片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元累充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60元累充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元累充</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -869,11 +905,12 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
@@ -1179,19 +1216,43 @@
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>103</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>300</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>15</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1203,22 +1264,52 @@
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>104</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>100</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>30</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1227,22 +1318,52 @@
       <c r="V7" s="4"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>105</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>200</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>50</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37032CB3-37AB-49DE-A0C6-E4E5E130622C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAA11BF-BFF1-4EF8-8F28-73F6B034A4BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,7 +905,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAA11BF-BFF1-4EF8-8F28-73F6B034A4BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEBA166-01E3-45EC-8CD0-78AEA112870E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,7 +905,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEBA166-01E3-45EC-8CD0-78AEA112870E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623051EB-4DE4-4FEF-9407-8D87832A1724}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="128">
   <si>
     <t>sheet名</t>
   </si>
@@ -308,6 +308,181 @@
   </si>
   <si>
     <t>100元累充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线收益时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线收益获得加成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡收益获得加成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfflineEarningsTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfflineRevenuePlus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SweepGainsBonus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否百分比</t>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>privilege.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+  </si>
+  <si>
+    <t>特权-客户端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastDays</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级精炼石</t>
+  </si>
+  <si>
+    <t>龙魂</t>
+  </si>
+  <si>
+    <t>龙晶</t>
+  </si>
+  <si>
+    <t>天命丹</t>
+  </si>
+  <si>
+    <t>突破丹</t>
+  </si>
+  <si>
+    <t>累充6元</t>
+  </si>
+  <si>
+    <t>累充25元</t>
+  </si>
+  <si>
+    <t>累充50元</t>
+  </si>
+  <si>
+    <t>累充80元</t>
+  </si>
+  <si>
+    <t>累充100元</t>
+  </si>
+  <si>
+    <t>累充150元</t>
+  </si>
+  <si>
+    <t>累充200元</t>
+  </si>
+  <si>
+    <t>累充300元</t>
+  </si>
+  <si>
+    <t>累充500元</t>
+  </si>
+  <si>
+    <t>累充650元</t>
+  </si>
+  <si>
+    <t>累充800元</t>
+  </si>
+  <si>
+    <t>累充1000元</t>
+  </si>
+  <si>
+    <t>累充1500元</t>
+  </si>
+  <si>
+    <t>累充2000元</t>
+  </si>
+  <si>
+    <t>extAward[1].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外道具1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外权重1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外数量1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元钻石商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元钻石商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>328元钻石商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>648元钻石商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAward[1].valw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extAward[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68元钻石商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>128元钻石商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:ae&lt;&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -502,11 +677,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,6 +686,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -808,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,72 +1011,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="4" t="b">
+      <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="4" t="b">
+      <c r="G3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -902,92 +1126,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="22" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="24" max="24" width="18.5" customWidth="1"/>
+    <col min="25" max="25" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -1054,394 +1290,1453 @@
       <c r="V2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="W3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>101</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>101</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>200</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
         <v>50</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>102</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <v>100</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>2</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="5">
         <v>1</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>103</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
         <v>300</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="5">
         <v>15</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>104</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
         <v>30</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
         <v>100</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="5">
         <v>2</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="5">
         <v>30</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>105</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>30</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
         <v>200</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="5">
         <v>2</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="5">
         <v>50</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>301</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>302</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>303</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>304</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>305</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>4</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>2</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>306</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>5</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>3</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>307</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>6</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>6</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>6</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>4</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>308</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>7</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>7</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>7</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <v>5</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>309</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>8</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>8</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>8</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
+        <v>6</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>310</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>9</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>9</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>9</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>7</v>
+      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>311</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>10</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>10</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>8</v>
+      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <v>312</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>11</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>11</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>11</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>9</v>
+      </c>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
+        <v>313</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>12</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>12</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>12</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
+        <v>10</v>
+      </c>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
+        <v>314</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>13</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>13</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>13</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>11</v>
+      </c>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>401</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>60</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>402</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>403</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>680</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>404</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1280</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>405</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3280</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>406</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6480</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>1988</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1452,33 +2747,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15ACC97-6791-4153-8BE8-C87B6393AA81}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1491,33 +2798,190 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>101</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>67</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>201</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>202</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>203</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>204</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>205</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>206</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623051EB-4DE4-4FEF-9407-8D87832A1724}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ECEF59-0C43-4282-8F9E-781908822B2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -358,9 +358,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rowId</t>
-  </si>
-  <si>
     <t>特权-客户端</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -483,6 +480,10 @@
   </si>
   <si>
     <t>int:ae&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +997,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1084,13 +1085,13 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1111,7 +1112,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1128,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1214,13 +1215,13 @@
         <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1234,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -1368,13 +1369,13 @@
         <v>55</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
@@ -1648,11 +1649,11 @@
         <v>301</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -1687,11 +1688,11 @@
         <v>302</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -1700,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -1732,11 +1733,11 @@
         <v>303</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -1745,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -1754,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -1763,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O11" s="5">
         <v>0</v>
@@ -1789,11 +1790,11 @@
         <v>304</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -1802,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -1811,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1820,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O12" s="5">
         <v>0</v>
@@ -1829,7 +1830,7 @@
         <v>3</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R12" s="5">
         <v>0</v>
@@ -1852,11 +1853,11 @@
         <v>305</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -1865,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -1874,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1883,7 +1884,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O13" s="5">
         <v>0</v>
@@ -1892,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R13" s="5">
         <v>0</v>
@@ -1915,11 +1916,11 @@
         <v>306</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -1928,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
@@ -1937,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -1946,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O14" s="5">
         <v>0</v>
@@ -1955,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R14" s="5">
         <v>0</v>
@@ -1978,11 +1979,11 @@
         <v>307</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -1991,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -2000,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L15" s="5">
         <v>0</v>
@@ -2009,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O15" s="5">
         <v>0</v>
@@ -2018,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R15" s="5">
         <v>0</v>
@@ -2041,11 +2042,11 @@
         <v>308</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -2054,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -2063,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
@@ -2072,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O16" s="5">
         <v>0</v>
@@ -2081,7 +2082,7 @@
         <v>7</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R16" s="5">
         <v>0</v>
@@ -2104,11 +2105,11 @@
         <v>309</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
@@ -2117,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -2126,7 +2127,7 @@
         <v>8</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L17" s="5">
         <v>0</v>
@@ -2135,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O17" s="5">
         <v>0</v>
@@ -2144,7 +2145,7 @@
         <v>8</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R17" s="5">
         <v>0</v>
@@ -2167,11 +2168,11 @@
         <v>310</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -2180,7 +2181,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -2189,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
@@ -2198,7 +2199,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O18" s="5">
         <v>0</v>
@@ -2207,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
@@ -2230,11 +2231,11 @@
         <v>311</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -2243,7 +2244,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
@@ -2252,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
@@ -2261,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O19" s="5">
         <v>0</v>
@@ -2270,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R19" s="5">
         <v>0</v>
@@ -2293,11 +2294,11 @@
         <v>312</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
@@ -2306,7 +2307,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
@@ -2315,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L20" s="5">
         <v>0</v>
@@ -2324,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O20" s="5">
         <v>0</v>
@@ -2333,7 +2334,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R20" s="5">
         <v>0</v>
@@ -2356,11 +2357,11 @@
         <v>313</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
@@ -2369,7 +2370,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
@@ -2378,7 +2379,7 @@
         <v>12</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L21" s="5">
         <v>0</v>
@@ -2387,7 +2388,7 @@
         <v>12</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O21" s="5">
         <v>0</v>
@@ -2396,7 +2397,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R21" s="5">
         <v>0</v>
@@ -2419,11 +2420,11 @@
         <v>314</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -2432,7 +2433,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
@@ -2441,7 +2442,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L22" s="5">
         <v>0</v>
@@ -2450,7 +2451,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O22" s="5">
         <v>0</v>
@@ -2459,7 +2460,7 @@
         <v>13</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R22" s="5">
         <v>0</v>
@@ -2482,11 +2483,11 @@
         <v>401</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -2521,11 +2522,11 @@
         <v>402</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2549,7 +2550,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -2566,11 +2567,11 @@
         <v>403</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -2594,7 +2595,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X25" s="3">
         <v>0</v>
@@ -2611,11 +2612,11 @@
         <v>404</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -2639,7 +2640,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
@@ -2656,11 +2657,11 @@
         <v>405</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -2684,7 +2685,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
@@ -2701,11 +2702,11 @@
         <v>406</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -2729,7 +2730,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X28" s="3">
         <v>0</v>
@@ -2749,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15ACC97-6791-4153-8BE8-C87B6393AA81}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2782,7 +2783,7 @@
         <v>88</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2790,7 +2791,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2828,7 +2829,7 @@
         <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ECEF59-0C43-4282-8F9E-781908822B2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09802C2F-2F2B-4C0F-B58A-40F166B9B973}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2750,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15ACC97-6791-4153-8BE8-C87B6393AA81}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09802C2F-2F2B-4C0F-B58A-40F166B9B973}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAEC691-D2D6-4621-BF3B-EC47E3C392A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,14 +275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>项链S4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒指S4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中级精炼石</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -295,10 +287,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4级攻击晶片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>30元累充</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -484,6 +472,18 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链S5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指S5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级攻击晶片</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1078,20 +1078,20 @@
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1099,11 +1099,11 @@
     </row>
     <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1112,7 +1112,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1215,13 +1215,13 @@
         <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -1369,13 +1369,13 @@
         <v>55</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
@@ -1484,11 +1484,11 @@
         <v>103</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -1535,11 +1535,11 @@
         <v>104</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>30</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -1592,11 +1592,11 @@
         <v>105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -1649,11 +1649,11 @@
         <v>301</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -1688,11 +1688,11 @@
         <v>302</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -1733,11 +1733,11 @@
         <v>303</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O11" s="5">
         <v>0</v>
@@ -1790,11 +1790,11 @@
         <v>304</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O12" s="5">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>3</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R12" s="5">
         <v>0</v>
@@ -1853,11 +1853,11 @@
         <v>305</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O13" s="5">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R13" s="5">
         <v>0</v>
@@ -1916,11 +1916,11 @@
         <v>306</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>5</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O14" s="5">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R14" s="5">
         <v>0</v>
@@ -1979,11 +1979,11 @@
         <v>307</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L15" s="5">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O15" s="5">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>6</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R15" s="5">
         <v>0</v>
@@ -2042,11 +2042,11 @@
         <v>308</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O16" s="5">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>7</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R16" s="5">
         <v>0</v>
@@ -2105,11 +2105,11 @@
         <v>309</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>8</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L17" s="5">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O17" s="5">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>8</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R17" s="5">
         <v>0</v>
@@ -2168,11 +2168,11 @@
         <v>310</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O18" s="5">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
@@ -2231,11 +2231,11 @@
         <v>311</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O19" s="5">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R19" s="5">
         <v>0</v>
@@ -2294,11 +2294,11 @@
         <v>312</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L20" s="5">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O20" s="5">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R20" s="5">
         <v>0</v>
@@ -2357,11 +2357,11 @@
         <v>313</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>12</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L21" s="5">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>12</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O21" s="5">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R21" s="5">
         <v>0</v>
@@ -2420,11 +2420,11 @@
         <v>314</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I22" s="5">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L22" s="5">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>13</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O22" s="5">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>13</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R22" s="5">
         <v>0</v>
@@ -2483,11 +2483,11 @@
         <v>401</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -2522,11 +2522,11 @@
         <v>402</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2550,7 +2550,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -2567,11 +2567,11 @@
         <v>403</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -2595,7 +2595,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X25" s="3">
         <v>0</v>
@@ -2612,11 +2612,11 @@
         <v>404</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -2640,7 +2640,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
@@ -2657,11 +2657,11 @@
         <v>405</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -2685,7 +2685,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
@@ -2702,11 +2702,11 @@
         <v>406</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -2730,7 +2730,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X28" s="3">
         <v>0</v>
@@ -2777,13 +2777,13 @@
         <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2823,13 +2823,13 @@
         <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2859,10 +2859,10 @@
         <v>201</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -2880,10 +2880,10 @@
         <v>202</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="5">
         <v>0.2</v>
@@ -2903,10 +2903,10 @@
         <v>203</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" s="5">
         <v>0.2</v>
@@ -2926,10 +2926,10 @@
         <v>204</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5">
         <v>4</v>
@@ -2947,10 +2947,10 @@
         <v>205</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" s="5">
         <v>0.3</v>
@@ -2970,10 +2970,10 @@
         <v>206</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5">
         <v>0.3</v>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAEC691-D2D6-4621-BF3B-EC47E3C392A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C8A748-6ACA-434E-B48E-AE3F67B46BD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J29" sqref="J28:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>59</v>
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C8A748-6ACA-434E-B48E-AE3F67B46BD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE5E9C-6BC7-41C9-AB10-4E672A305051}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
   <si>
     <t>sheet名</t>
   </si>
@@ -358,63 +358,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>初级精炼石</t>
-  </si>
-  <si>
-    <t>龙魂</t>
-  </si>
-  <si>
-    <t>龙晶</t>
-  </si>
-  <si>
-    <t>天命丹</t>
-  </si>
-  <si>
-    <t>突破丹</t>
-  </si>
-  <si>
-    <t>累充6元</t>
-  </si>
-  <si>
-    <t>累充25元</t>
-  </si>
-  <si>
-    <t>累充50元</t>
-  </si>
-  <si>
-    <t>累充80元</t>
-  </si>
-  <si>
-    <t>累充100元</t>
-  </si>
-  <si>
-    <t>累充150元</t>
-  </si>
-  <si>
-    <t>累充200元</t>
-  </si>
-  <si>
-    <t>累充300元</t>
-  </si>
-  <si>
-    <t>累充500元</t>
-  </si>
-  <si>
-    <t>累充650元</t>
-  </si>
-  <si>
-    <t>累充800元</t>
-  </si>
-  <si>
-    <t>累充1000元</t>
-  </si>
-  <si>
-    <t>累充1500元</t>
-  </si>
-  <si>
-    <t>累充2000元</t>
-  </si>
-  <si>
     <t>extAward[1].id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -484,6 +427,14 @@
   </si>
   <si>
     <t>5级攻击晶片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68元直冲礼包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +629,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
@@ -695,12 +646,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1085,7 +1032,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>63</v>
@@ -1127,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J28:J29"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1215,13 +1162,13 @@
         <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1235,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -1302,80 +1249,80 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
@@ -1488,7 +1435,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -1539,7 +1486,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -1596,7 +1543,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -1646,36 +1593,42 @@
         <v>6</v>
       </c>
       <c r="B9" s="5">
-        <v>301</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8" t="s">
-        <v>95</v>
+        <v>201</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+        <v>688</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>688</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -1684,43 +1637,37 @@
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
-        <v>302</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8" t="s">
+      <c r="B10" s="3">
+        <v>401</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -1729,1013 +1676,224 @@
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
-        <v>303</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>2</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>2</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="B11" s="3">
+        <v>402</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>300</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
-        <v>304</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="3">
+        <v>403</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>3</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>3</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>3</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R12" s="5">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
-        <v>1</v>
-      </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>680</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
-        <v>305</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>4</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>4</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
-        <v>2</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="B13" s="3">
+        <v>404</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1280</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>198</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
-        <v>306</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>5</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>5</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R14" s="5">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5">
-        <v>3</v>
-      </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="B14" s="3">
+        <v>405</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3280</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>688</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
-        <v>307</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>6</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>6</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>6</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R15" s="5">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
-        <v>4</v>
-      </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5">
-        <v>308</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>7</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>7</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>7</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R16" s="5">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
-        <v>5</v>
-      </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
-        <v>309</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>8</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>8</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <v>8</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R17" s="5">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5">
-        <v>6</v>
-      </c>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5">
-        <v>310</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>9</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>9</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>9</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5">
-        <v>7</v>
-      </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5">
-        <v>311</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>10</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>10</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>10</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>8</v>
-      </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5">
-        <v>312</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>11</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>11</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
-        <v>11</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R20" s="5">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5">
-        <v>9</v>
-      </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5">
-        <v>313</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>12</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>12</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
-        <v>12</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R21" s="5">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
-        <v>10</v>
-      </c>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5">
-        <v>314</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>13</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5">
-        <v>13</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5">
-        <v>13</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0</v>
-      </c>
-      <c r="P22" s="5">
-        <v>13</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
-        <v>11</v>
-      </c>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
-        <v>401</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>60</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
-        <v>402</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3">
-        <v>403</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>680</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3">
-        <v>404</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1280</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3">
-        <v>405</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3280</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="B15" s="3">
         <v>406</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="C15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>6480</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="X28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
         <v>1988</v>
       </c>
     </row>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE5E9C-6BC7-41C9-AB10-4E672A305051}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4583146-9A67-4363-8F55-D414AC6C091E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="114">
   <si>
     <t>sheet名</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>钻石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微端礼包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1074,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1896,6 +1908,57 @@
       <c r="Y15" s="3">
         <v>1988</v>
       </c>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>501</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>300</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>50</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4583146-9A67-4363-8F55-D414AC6C091E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB39F2F-E4FE-435D-A46E-9D97AB48501C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
   <si>
     <t>sheet名</t>
   </si>
@@ -442,11 +442,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>武器S3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人礼包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>突破丹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器S3</t>
+  </si>
+  <si>
+    <t>天命丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级精炼石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙魂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1086,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1930,7 +1949,7 @@
         <v>300</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -1939,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="L16" s="5">
         <v>0</v>
@@ -1959,6 +1978,75 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>502</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>10</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>20</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>50</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB39F2F-E4FE-435D-A46E-9D97AB48501C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1F7276-5B30-4DA5-9E59-6D2B8323E67C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1F7276-5B30-4DA5-9E59-6D2B8323E67C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD263BEB-F111-4F68-902C-C14F4DC63DBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="商品" sheetId="42" r:id="rId2"/>
-    <sheet name="特权" sheetId="43" r:id="rId3"/>
+    <sheet name="充值" sheetId="44" r:id="rId2"/>
+    <sheet name="商品" sheetId="42" r:id="rId3"/>
+    <sheet name="特权" sheetId="43" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="140">
   <si>
     <t>sheet名</t>
   </si>
@@ -466,6 +467,97 @@
   </si>
   <si>
     <t>龙魂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>648元</t>
+  </si>
+  <si>
+    <t>328元</t>
+  </si>
+  <si>
+    <t>128元</t>
+  </si>
+  <si>
+    <t>68元</t>
+  </si>
+  <si>
+    <t>30元</t>
+  </si>
+  <si>
+    <t>6元</t>
+  </si>
+  <si>
+    <t>1元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK付费ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoneId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端充值额度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端充值额度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68元-临时</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +638,14 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -629,7 +729,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -659,8 +759,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
@@ -680,12 +781,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="13" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="13" xr:uid="{4D528B8D-D7CC-4422-921F-A743EF40C306}"/>
     <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -972,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1096,6 +1200,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1104,11 +1250,255 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E2B7D4-64B0-4156-BD62-106D67ED0ADF}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="10.25" style="7" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>102</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>107</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>201</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>202</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>203</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1997,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>114</v>
@@ -2006,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>115</v>
@@ -2015,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>118</v>
@@ -2024,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>116</v>
@@ -2033,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>117</v>
@@ -2042,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -2055,7 +2445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15ACC97-6791-4153-8BE8-C87B6393AA81}">
   <dimension ref="A1:G10"/>
   <sheetViews>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD263BEB-F111-4F68-902C-C14F4DC63DBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FBE250-6C0B-4409-B682-ED0B568B8583}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -276,10 +276,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中级精炼石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>天命丹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -558,6 +554,10 @@
   </si>
   <si>
     <t>68元-临时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特级精炼石</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1160,20 +1160,20 @@
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1181,11 +1181,11 @@
     </row>
     <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1194,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -1215,7 +1215,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -1223,11 +1223,11 @@
     </row>
     <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -1236,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -1253,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E2B7D4-64B0-4156-BD62-106D67ED0ADF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1274,18 +1274,18 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
@@ -1308,13 +1308,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -1342,7 +1342,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
@@ -1359,7 +1359,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
@@ -1376,7 +1376,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -1393,7 +1393,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="3">
         <v>6</v>
@@ -1410,7 +1410,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
@@ -1427,7 +1427,7 @@
         <v>107</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="3">
         <v>8</v>
@@ -1444,7 +1444,7 @@
         <v>201</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
@@ -1461,7 +1461,7 @@
         <v>202</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
@@ -1478,7 +1478,7 @@
         <v>203</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
@@ -1497,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1583,13 +1583,13 @@
         <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -1603,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -1737,13 +1737,13 @@
         <v>55</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
@@ -1852,11 +1852,11 @@
         <v>103</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -1903,11 +1903,11 @@
         <v>104</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>30</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
       </c>
       <c r="M7" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>58</v>
@@ -1960,11 +1960,11 @@
         <v>105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>30</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
       </c>
       <c r="M8" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>58</v>
@@ -2017,7 +2017,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
@@ -2030,7 +2030,7 @@
         <v>688</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -2062,11 +2062,11 @@
         <v>401</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -2101,11 +2101,11 @@
         <v>402</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2129,7 +2129,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X11" s="3">
         <v>0</v>
@@ -2146,11 +2146,11 @@
         <v>403</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -2174,7 +2174,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
@@ -2191,11 +2191,11 @@
         <v>404</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -2219,7 +2219,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X13" s="3">
         <v>0</v>
@@ -2236,11 +2236,11 @@
         <v>405</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -2264,7 +2264,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -2281,11 +2281,11 @@
         <v>406</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -2309,7 +2309,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -2326,11 +2326,11 @@
         <v>501</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>300</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -2377,11 +2377,11 @@
         <v>502</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>9</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>9</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>18</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U17" s="3">
         <v>1</v>
@@ -2476,13 +2476,13 @@
         <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2522,13 +2522,13 @@
         <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2558,10 +2558,10 @@
         <v>201</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
@@ -2579,10 +2579,10 @@
         <v>202</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5">
         <v>0.2</v>
@@ -2602,10 +2602,10 @@
         <v>203</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="5">
         <v>0.2</v>
@@ -2625,10 +2625,10 @@
         <v>204</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5">
         <v>4</v>
@@ -2646,10 +2646,10 @@
         <v>205</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5">
         <v>0.3</v>
@@ -2669,10 +2669,10 @@
         <v>206</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="5">
         <v>0.3</v>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FBE250-6C0B-4409-B682-ED0B568B8583}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519B8E71-8AC8-47AD-A0FF-D4F4D9EA996F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,10 +462,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>龙魂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>68元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -558,6 +554,10 @@
   </si>
   <si>
     <t>特级精炼石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙晶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -1215,7 +1215,7 @@
         <v>63</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -1223,11 +1223,11 @@
     </row>
     <row r="7" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -1236,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -1274,18 +1274,18 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
@@ -1308,13 +1308,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -1342,7 +1342,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
@@ -1359,7 +1359,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
@@ -1376,7 +1376,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -1393,7 +1393,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="3">
         <v>6</v>
@@ -1410,7 +1410,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
@@ -1427,7 +1427,7 @@
         <v>107</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="3">
         <v>8</v>
@@ -1444,7 +1444,7 @@
         <v>201</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
@@ -1461,7 +1461,7 @@
         <v>202</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
@@ -1478,7 +1478,7 @@
         <v>203</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
@@ -1498,7 +1498,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -2408,13 +2408,13 @@
         <v>9</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>115</v>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519B8E71-8AC8-47AD-A0FF-D4F4D9EA996F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3F3E3D-9487-4C61-8768-095A7B8F6D0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1497,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2449,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15ACC97-6791-4153-8BE8-C87B6393AA81}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3F3E3D-9487-4C61-8768-095A7B8F6D0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3487C-9F60-442B-8A1D-C65117C8D6C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2450,7 +2450,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3487C-9F60-442B-8A1D-C65117C8D6C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58471782-5578-4FD9-BD1C-2F81E6FEF83B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1497,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1763,10 +1763,10 @@
         <v>58</v>
       </c>
       <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
         <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>300</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>59</v>
@@ -1829,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -2449,7 +2449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15ACC97-6791-4153-8BE8-C87B6393AA81}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58471782-5578-4FD9-BD1C-2F81E6FEF83B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0788BDE4-E02A-474A-B06F-45B67BEEFC01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1497,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2432,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="3">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>

--- a/Excel/commodity.商品.xlsx
+++ b/Excel/commodity.商品.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0788BDE4-E02A-474A-B06F-45B67BEEFC01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695056D9-96E8-4F8D-913F-E6C4ABD9B7E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="140">
   <si>
     <t>sheet名</t>
   </si>
@@ -761,7 +761,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
@@ -783,6 +783,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1497,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D61DC47-3E99-4EF2-9F4E-81967BA09B4D}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1756,8 +1759,8 @@
       <c r="C4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="5">
-        <v>101</v>
+      <c r="D4" s="9">
+        <v>101207</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>58</v>
@@ -2447,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15ACC97-6791-4153-8BE8-C87B6393AA81}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2564,7 +2567,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
@@ -2681,6 +2684,27 @@
         <v>1</v>
       </c>
       <c r="G10" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>207</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
         <v>-1</v>
       </c>
     </row>
